--- a/Assets/StreamingAssets/GameData/Maps/LanguageMap.xlsx
+++ b/Assets/StreamingAssets/GameData/Maps/LanguageMap.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,12 +53,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -503,19 +516,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,7 +985,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
